--- a/data/cat_ch7022.xlsx
+++ b/data/cat_ch7022.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23D0AB1-2F9E-4637-B003-3C04EF6C4972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359678D-EB2D-42A9-B8BC-902F64CDBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="285" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34185" yWindow="2775" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId1"/>
     <sheet name="Chase6390_Activity20230101_2023" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,10 +580,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -745,7 +744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAE9AE3B-D856-414E-BFEA-C9D1FB51FA9C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAE9AE3B-D856-414E-BFEA-C9D1FB51FA9C}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1126,65 +1125,65 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>-95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>-5069.97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>-116.21000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>-387.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>5669.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
@@ -1201,15 +1200,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45240</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>504.11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45195</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45195</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45195</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45195</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>-25.21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45195</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>-387.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45179</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>5069.97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45127</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>-5069.97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45086</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45047</v>
       </c>
